--- a/archivo_con_predicciones.xlsx
+++ b/archivo_con_predicciones.xlsx
@@ -506,223 +506,323 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>16</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>auburn</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10693</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gmc</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sierra 1500 crew cab slt</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
-      <c r="G2" t="n">
-        <v>2</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>57923</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4wd</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>white</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="N2" t="n">
-        <v>32944.13944377947</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>16</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>auburn</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>2010</v>
       </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10884</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chevrolet</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>silverado 1500</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>71229</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>4wd</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="N3" t="n">
-        <v>21197.33019575391</v>
+        <v>21197</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>16</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>auburn</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>2020</v>
       </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10895</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>chevrolet</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>silverado 1500 crew</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>2</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>19160</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4wd</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>35352.83860251007</v>
+        <v>35353</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>16</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>auburn</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>2017</v>
       </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12557</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>toyota</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tundra double cab sr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>41124</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>8</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>4wd</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="N5" t="n">
-        <v>27991.28475617444</v>
+        <v>27991</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>16</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>auburn</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>2013</v>
       </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5425</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>f 150 xlt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>excellent</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>8</v>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>gas</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>128000</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>10</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>automatic</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4wd</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>al</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>19016.2210567455</v>
+        <v>19016</v>
       </c>
     </row>
   </sheetData>
